--- a/행복회로.py/Output/EDA_TimeSeries_Clusters_20200901.xlsx
+++ b/행복회로.py/Output/EDA_TimeSeries_Clusters_20200901.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sir95\Desktop\Data-Analysis\행복회로.py\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{916C576E-2A49-49F5-8652-B92864BA05A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EF76B8-C3ED-4A22-992F-D8D3E56D5C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ABCB8D0E-A9C2-437B-B6C1-423EA7E8B24B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>연말</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -198,6 +198,58 @@
     <t>1. cluster 1+cluster 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1년 중반기에 취급액 증가하는 시간대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1년 후반기로 갈수록 취급액 증가하는 시간대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1년 가을 즈음에 취급액 증가해서 유지되는 시간대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울에 취급액 증가하는 시간대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1년 후반기로 갈수록 취급액 감소하는 시간대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1년 내내 꾸준하게 취급액 증가하는 시간대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,6 +1145,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,134 +1190,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -1511,6 +1503,72 @@
         <a:xfrm>
           <a:off x="25424191" y="9556992"/>
           <a:ext cx="7126029" cy="3031974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>570805</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>198813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCF1152-B31B-49AE-9BA7-32A84AA32F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8201891" y="3023948"/>
+          <a:ext cx="9479278" cy="4046720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2375,7 +2433,7 @@
       <c r="AI11" s="5"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="134" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1"/>
@@ -2474,7 +2532,7 @@
       <c r="AI12" s="5"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A13" s="138"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="4"/>
       <c r="C13" s="16"/>
       <c r="D13" s="6"/>
@@ -2513,7 +2571,7 @@
       <c r="AI13" s="5"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A14" s="138"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="4"/>
       <c r="C14" s="13">
         <v>181</v>
@@ -2619,7 +2677,7 @@
       <c r="AP14" s="40"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A15" s="138"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="4"/>
       <c r="C15" s="39"/>
       <c r="D15" s="31"/>
@@ -2667,7 +2725,7 @@
       <c r="AP15" s="40"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A16" s="138"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="4"/>
       <c r="C16" s="13">
         <v>212</v>
@@ -2773,7 +2831,7 @@
       <c r="AP16" s="40"/>
     </row>
     <row r="17" spans="1:42" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="139"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="8"/>
       <c r="C17" s="69"/>
       <c r="D17" s="50"/>
@@ -2821,7 +2879,7 @@
       <c r="AP17" s="40"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="134" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1"/>
@@ -2927,7 +2985,7 @@
       <c r="AP18" s="40"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A19" s="138"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="4"/>
       <c r="C19" s="70"/>
       <c r="D19" s="43"/>
@@ -2977,7 +3035,7 @@
       <c r="AP19" s="40"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A20" s="138"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="4"/>
       <c r="C20" s="13">
         <v>273</v>
@@ -3083,7 +3141,7 @@
       <c r="AP20" s="40"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A21" s="138"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="4"/>
       <c r="C21" s="67"/>
       <c r="D21" s="53"/>
@@ -3131,7 +3189,7 @@
       <c r="AP21" s="40"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A22" s="138"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="35"/>
       <c r="C22" s="13">
         <v>304</v>
@@ -3235,7 +3293,7 @@
       <c r="AP22" s="40"/>
     </row>
     <row r="23" spans="1:42" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="139"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="36"/>
       <c r="C23" s="71"/>
       <c r="D23" s="20"/>
@@ -3281,10 +3339,10 @@
       <c r="AP23" s="40"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A24" s="137" t="s">
+      <c r="A24" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="134" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="18">
@@ -3391,8 +3449,8 @@
       <c r="AP24" s="40"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A25" s="138"/>
-      <c r="B25" s="138"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="70"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -3437,8 +3495,8 @@
       <c r="AP25" s="40"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A26" s="138"/>
-      <c r="B26" s="138" t="s">
+      <c r="A26" s="135"/>
+      <c r="B26" s="135" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="13">
@@ -3545,8 +3603,8 @@
       <c r="AP26" s="40"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A27" s="138"/>
-      <c r="B27" s="138"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="135"/>
       <c r="C27" s="70" t="s">
         <v>22</v>
       </c>
@@ -3592,7 +3650,7 @@
       <c r="AI27" s="5"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A28" s="138"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="4"/>
       <c r="C28" s="13">
         <v>31</v>
@@ -3684,7 +3742,7 @@
       <c r="AH28" s="7"/>
     </row>
     <row r="29" spans="1:42" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="139"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="8"/>
       <c r="C29" s="72"/>
       <c r="D29" s="73"/>
@@ -3731,85 +3789,85 @@
     <row r="40" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="107"/>
       <c r="B40" s="107"/>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="134" t="s">
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="N40" s="135"/>
-      <c r="O40" s="135"/>
-      <c r="P40" s="135"/>
-      <c r="Q40" s="135"/>
-      <c r="R40" s="135"/>
-      <c r="S40" s="135"/>
-      <c r="T40" s="135"/>
-      <c r="U40" s="135"/>
-      <c r="V40" s="136"/>
-      <c r="W40" s="134" t="s">
+      <c r="N40" s="147"/>
+      <c r="O40" s="147"/>
+      <c r="P40" s="147"/>
+      <c r="Q40" s="147"/>
+      <c r="R40" s="147"/>
+      <c r="S40" s="147"/>
+      <c r="T40" s="147"/>
+      <c r="U40" s="147"/>
+      <c r="V40" s="148"/>
+      <c r="W40" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="X40" s="135"/>
-      <c r="Y40" s="135"/>
-      <c r="Z40" s="135"/>
-      <c r="AA40" s="135"/>
-      <c r="AB40" s="135"/>
-      <c r="AC40" s="135"/>
-      <c r="AD40" s="135"/>
-      <c r="AE40" s="135"/>
-      <c r="AF40" s="135"/>
-      <c r="AG40" s="136"/>
+      <c r="X40" s="147"/>
+      <c r="Y40" s="147"/>
+      <c r="Z40" s="147"/>
+      <c r="AA40" s="147"/>
+      <c r="AB40" s="147"/>
+      <c r="AC40" s="147"/>
+      <c r="AD40" s="147"/>
+      <c r="AE40" s="147"/>
+      <c r="AF40" s="147"/>
+      <c r="AG40" s="148"/>
     </row>
     <row r="41" spans="1:36" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="107"/>
       <c r="B41" s="107"/>
-      <c r="C41" s="143" t="s">
+      <c r="C41" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="144"/>
-      <c r="O41" s="144"/>
-      <c r="P41" s="144"/>
-      <c r="Q41" s="145"/>
-      <c r="R41" s="143" t="s">
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="138"/>
+      <c r="O41" s="138"/>
+      <c r="P41" s="138"/>
+      <c r="Q41" s="139"/>
+      <c r="R41" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="144"/>
-      <c r="T41" s="144"/>
-      <c r="U41" s="144"/>
-      <c r="V41" s="144"/>
-      <c r="W41" s="144"/>
-      <c r="X41" s="144"/>
-      <c r="Y41" s="144"/>
-      <c r="Z41" s="144"/>
-      <c r="AA41" s="144"/>
-      <c r="AB41" s="144"/>
-      <c r="AC41" s="144"/>
-      <c r="AD41" s="144"/>
-      <c r="AE41" s="144"/>
-      <c r="AF41" s="144"/>
-      <c r="AG41" s="145"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="138"/>
+      <c r="U41" s="138"/>
+      <c r="V41" s="138"/>
+      <c r="W41" s="138"/>
+      <c r="X41" s="138"/>
+      <c r="Y41" s="138"/>
+      <c r="Z41" s="138"/>
+      <c r="AA41" s="138"/>
+      <c r="AB41" s="138"/>
+      <c r="AC41" s="138"/>
+      <c r="AD41" s="138"/>
+      <c r="AE41" s="138"/>
+      <c r="AF41" s="138"/>
+      <c r="AG41" s="139"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A42" s="146" t="s">
+      <c r="A42" s="140" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="91"/>
@@ -3912,7 +3970,7 @@
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A43" s="147"/>
+      <c r="A43" s="141"/>
       <c r="B43" s="96"/>
       <c r="C43" s="67"/>
       <c r="D43" s="53"/>
@@ -3951,7 +4009,7 @@
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A44" s="147"/>
+      <c r="A44" s="141"/>
       <c r="B44" s="96"/>
       <c r="C44" s="95">
         <v>90</v>
@@ -4050,7 +4108,7 @@
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A45" s="147"/>
+      <c r="A45" s="141"/>
       <c r="B45" s="96"/>
       <c r="C45" s="39"/>
       <c r="D45" s="43"/>
@@ -4093,7 +4151,7 @@
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A46" s="147"/>
+      <c r="A46" s="141"/>
       <c r="B46" s="96"/>
       <c r="C46" s="95">
         <v>120</v>
@@ -4194,7 +4252,7 @@
       </c>
     </row>
     <row r="47" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="148"/>
+      <c r="A47" s="142"/>
       <c r="B47" s="96"/>
       <c r="C47" s="39"/>
       <c r="D47" s="114"/>
@@ -4233,7 +4291,7 @@
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="143" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="108"/>
@@ -4332,7 +4390,7 @@
       <c r="AJ48"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A49" s="141"/>
+      <c r="A49" s="144"/>
       <c r="B49" s="109"/>
       <c r="C49" s="16"/>
       <c r="D49" s="6"/>
@@ -4368,7 +4426,7 @@
       <c r="AH49" s="7"/>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A50" s="141"/>
+      <c r="A50" s="144"/>
       <c r="B50" s="109"/>
       <c r="C50" s="95">
         <v>181</v>
@@ -4467,7 +4525,7 @@
       <c r="AJ50"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A51" s="141"/>
+      <c r="A51" s="144"/>
       <c r="B51" s="109"/>
       <c r="C51" s="118"/>
       <c r="D51" s="31"/>
@@ -4503,7 +4561,7 @@
       <c r="AH51" s="7"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A52" s="141"/>
+      <c r="A52" s="144"/>
       <c r="B52" s="109"/>
       <c r="C52" s="95">
         <v>212</v>
@@ -4601,7 +4659,7 @@
       <c r="AH52" s="7"/>
     </row>
     <row r="53" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="142"/>
+      <c r="A53" s="145"/>
       <c r="B53" s="110"/>
       <c r="C53" s="69"/>
       <c r="D53" s="50"/>
@@ -4643,7 +4701,7 @@
       <c r="AH53" s="9"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A54" s="140" t="s">
+      <c r="A54" s="143" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="108"/>
@@ -4741,7 +4799,7 @@
       <c r="AH54" s="3"/>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A55" s="141"/>
+      <c r="A55" s="144"/>
       <c r="B55" s="109"/>
       <c r="C55" s="70"/>
       <c r="D55" s="43"/>
@@ -4777,7 +4835,7 @@
       <c r="AH55" s="7"/>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A56" s="141"/>
+      <c r="A56" s="144"/>
       <c r="B56" s="109"/>
       <c r="C56" s="95">
         <v>273</v>
@@ -4875,7 +4933,7 @@
       <c r="AH56" s="7"/>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A57" s="141"/>
+      <c r="A57" s="144"/>
       <c r="B57" s="109"/>
       <c r="C57" s="67"/>
       <c r="D57" s="53"/>
@@ -4911,7 +4969,7 @@
       <c r="AH57" s="7"/>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A58" s="141"/>
+      <c r="A58" s="144"/>
       <c r="B58" s="111"/>
       <c r="C58" s="95">
         <v>304</v>
@@ -5007,7 +5065,7 @@
       <c r="AH58" s="7"/>
     </row>
     <row r="59" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="142"/>
+      <c r="A59" s="145"/>
       <c r="B59" s="112"/>
       <c r="C59" s="71"/>
       <c r="D59" s="20"/>
@@ -5043,10 +5101,10 @@
       <c r="AH59" s="9"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A60" s="140" t="s">
+      <c r="A60" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="140" t="s">
+      <c r="B60" s="143" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="100">
@@ -5145,8 +5203,8 @@
       <c r="AH60" s="3"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A61" s="141"/>
-      <c r="B61" s="141"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="144"/>
       <c r="C61" s="70"/>
       <c r="D61" s="31"/>
       <c r="E61" s="114"/>
@@ -5183,8 +5241,8 @@
       <c r="AH61" s="7"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A62" s="141"/>
-      <c r="B62" s="141" t="s">
+      <c r="A62" s="144"/>
+      <c r="B62" s="144" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="95">
@@ -5283,8 +5341,8 @@
       <c r="AH62" s="7"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A63" s="141"/>
-      <c r="B63" s="141"/>
+      <c r="A63" s="144"/>
+      <c r="B63" s="144"/>
       <c r="C63" s="70"/>
       <c r="D63" s="41"/>
       <c r="E63" s="43"/>
@@ -5319,7 +5377,7 @@
       <c r="AH63" s="7"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A64" s="141"/>
+      <c r="A64" s="144"/>
       <c r="B64" s="109"/>
       <c r="C64" s="95">
         <v>31</v>
@@ -5411,7 +5469,7 @@
       <c r="AH64" s="7"/>
     </row>
     <row r="65" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="142"/>
+      <c r="A65" s="145"/>
       <c r="B65" s="110"/>
       <c r="C65" s="72"/>
       <c r="D65" s="73"/>
@@ -5990,7 +6048,7 @@
       <c r="AJ85"/>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A86" s="137" t="s">
+      <c r="A86" s="134" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="1"/>
@@ -6089,7 +6147,7 @@
       <c r="AJ86"/>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A87" s="138"/>
+      <c r="A87" s="135"/>
       <c r="B87" s="4"/>
       <c r="C87" s="16"/>
       <c r="D87" s="6"/>
@@ -6128,7 +6186,7 @@
       <c r="AJ87"/>
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A88" s="138"/>
+      <c r="A88" s="135"/>
       <c r="B88" s="4"/>
       <c r="C88" s="13">
         <v>181</v>
@@ -6227,7 +6285,7 @@
       <c r="AJ88"/>
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A89" s="138"/>
+      <c r="A89" s="135"/>
       <c r="B89" s="4"/>
       <c r="C89" s="39"/>
       <c r="D89" s="31"/>
@@ -6268,7 +6326,7 @@
       <c r="AJ89"/>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A90" s="138"/>
+      <c r="A90" s="135"/>
       <c r="B90" s="4"/>
       <c r="C90" s="13">
         <v>212</v>
@@ -6367,7 +6425,7 @@
       <c r="AJ90"/>
     </row>
     <row r="91" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="139"/>
+      <c r="A91" s="136"/>
       <c r="B91" s="8"/>
       <c r="C91" s="69"/>
       <c r="D91" s="50"/>
@@ -6408,7 +6466,7 @@
       <c r="AJ91"/>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A92" s="137" t="s">
+      <c r="A92" s="134" t="s">
         <v>7</v>
       </c>
       <c r="B92" s="1"/>
@@ -6507,7 +6565,7 @@
       <c r="AJ92"/>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A93" s="138"/>
+      <c r="A93" s="135"/>
       <c r="B93" s="4"/>
       <c r="C93" s="70"/>
       <c r="D93" s="31"/>
@@ -6550,7 +6608,7 @@
       <c r="AJ93"/>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A94" s="138"/>
+      <c r="A94" s="135"/>
       <c r="B94" s="4"/>
       <c r="C94" s="13">
         <v>273</v>
@@ -6649,7 +6707,7 @@
       <c r="AJ94"/>
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A95" s="138"/>
+      <c r="A95" s="135"/>
       <c r="B95" s="4"/>
       <c r="C95" s="39"/>
       <c r="D95" s="53"/>
@@ -6690,7 +6748,7 @@
       <c r="AJ95"/>
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A96" s="138"/>
+      <c r="A96" s="135"/>
       <c r="B96" s="35"/>
       <c r="C96" s="13">
         <v>304</v>
@@ -6787,7 +6845,7 @@
       <c r="AJ96"/>
     </row>
     <row r="97" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="139"/>
+      <c r="A97" s="136"/>
       <c r="B97" s="36"/>
       <c r="C97" s="83"/>
       <c r="D97" s="20"/>
@@ -6826,10 +6884,10 @@
       <c r="AJ97"/>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A98" s="137" t="s">
+      <c r="A98" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="137" t="s">
+      <c r="B98" s="134" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="18">
@@ -6929,8 +6987,8 @@
       <c r="AJ98"/>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A99" s="138"/>
-      <c r="B99" s="138"/>
+      <c r="A99" s="135"/>
+      <c r="B99" s="135"/>
       <c r="C99" s="70"/>
       <c r="D99" s="31"/>
       <c r="E99" s="31"/>
@@ -6968,8 +7026,8 @@
       <c r="AJ99"/>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A100" s="138"/>
-      <c r="B100" s="138" t="s">
+      <c r="A100" s="135"/>
+      <c r="B100" s="135" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="13">
@@ -7069,8 +7127,8 @@
       <c r="AJ100"/>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A101" s="138"/>
-      <c r="B101" s="138"/>
+      <c r="A101" s="135"/>
+      <c r="B101" s="135"/>
       <c r="C101" s="70" t="s">
         <v>22</v>
       </c>
@@ -7116,7 +7174,7 @@
       <c r="AJ101"/>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A102" s="138"/>
+      <c r="A102" s="135"/>
       <c r="B102" s="4"/>
       <c r="C102" s="13">
         <v>31</v>
@@ -7209,7 +7267,7 @@
       <c r="AJ102"/>
     </row>
     <row r="103" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="139"/>
+      <c r="A103" s="136"/>
       <c r="B103" s="8"/>
       <c r="C103" s="72"/>
       <c r="D103" s="73"/>
@@ -7258,158 +7316,158 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:V4"/>
+    <mergeCell ref="W4:AG4"/>
+    <mergeCell ref="R5:AG5"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="M40:V40"/>
+    <mergeCell ref="W40:AG40"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C41:Q41"/>
+    <mergeCell ref="R41:AG41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
     <mergeCell ref="A80:A85"/>
     <mergeCell ref="C78:L78"/>
     <mergeCell ref="M78:V78"/>
     <mergeCell ref="W78:AG78"/>
     <mergeCell ref="C79:Q79"/>
     <mergeCell ref="R79:AG79"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C41:Q41"/>
-    <mergeCell ref="R41:AG41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="M40:V40"/>
-    <mergeCell ref="W40:AG40"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:V4"/>
-    <mergeCell ref="W4:AG4"/>
-    <mergeCell ref="R5:AG5"/>
-    <mergeCell ref="C5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C26:AG26">
-    <cfRule type="expression" dxfId="35" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>(OR(MOD(C$26, 7) =4, MOD(C$26, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:AG24">
-    <cfRule type="expression" dxfId="34" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>(OR(MOD(C$24, 7) =4, MOD(C$24, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:AD28">
-    <cfRule type="expression" dxfId="33" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>(OR(MOD(C$28, 7) =4, MOD(C$28, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:AF22">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>(OR(MOD(C$22, 7) =4, MOD(C$22, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:AG20">
-    <cfRule type="expression" dxfId="31" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>(OR(MOD(C$20, 7) =4, MOD(C$20, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:AF18">
-    <cfRule type="expression" dxfId="30" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>(OR(MOD(C$18, 7) =4, MOD(C$18, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:AG16">
-    <cfRule type="expression" dxfId="29" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>(OR(MOD(C$16, 7) =4, MOD(C$16, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AG14">
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>(OR(MOD(C$14, 7) =4, MOD(C$14, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AF12">
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>(OR(MOD(C$12, 7) =4, MOD(C$12, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:AG10">
-    <cfRule type="expression" dxfId="26" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>(OR(MOD(C$10, 7) =4, MOD(C$10, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:AF8">
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>(OR(MOD(C$8, 7) =4, MOD(C$8, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:AG6">
-    <cfRule type="expression" dxfId="24" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>(OR(MOD(C$6, 7) =4, MOD(C$6, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:AG80">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>(OR(MOD(C$34, 7) =4, MOD(C$34, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:AF82">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>(OR(MOD(C$36, 7) =4, MOD(C$36, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:AG84">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>(OR(MOD(C$38, 7) =4, MOD(C$38, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86:AF86">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>(OR(MOD(C$40, 7) =4, MOD(C$40, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88:AG88">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>(OR(MOD(C$42, 7) =4, MOD(C$42, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:AG90">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>(OR(MOD(C$44, 7) =4, MOD(C$44, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:AF92">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>(OR(MOD(C$46, 7) =4, MOD(C$46, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94:AG94">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>(OR(MOD(C$48, 7) =4, MOD(C$48, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96:AF96">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>(OR(MOD(C$50, 7) =4, MOD(C$50, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:AG98">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>(OR(MOD(C$52, 7) =4, MOD(C$52, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:AG100">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>(OR(MOD(C$54, 7) =4, MOD(C$54, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:AD102">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>(OR(MOD(C$56, 7) =4, MOD(C$56, 7) = 5))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7421,15 +7479,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE8F625-49BD-4E52-B45F-2004B212F43F}">
-  <dimension ref="B1:AG1"/>
+  <dimension ref="B1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="33" width="10.69921875" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" customWidth="1"/>
+    <col min="5" max="33" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.4">
@@ -7468,11 +7528,415 @@
       <c r="AF1" s="149"/>
       <c r="AG1" s="149"/>
     </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>17</v>
+      </c>
+      <c r="Q4">
+        <v>18</v>
+      </c>
+      <c r="R4">
+        <v>19</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>21</v>
+      </c>
+      <c r="U4">
+        <v>22</v>
+      </c>
+      <c r="V4">
+        <v>23</v>
+      </c>
+      <c r="W4">
+        <v>24</v>
+      </c>
+      <c r="X4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="154"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="152"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="154"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="41"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="152"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="154"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="152"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="154"/>
+      <c r="U8" s="154"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="151"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="152"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="41"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="152"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="151"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="41"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="F16" s="150">
+        <v>0</v>
+      </c>
+      <c r="G16" s="149" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F17" s="151">
+        <v>1</v>
+      </c>
+      <c r="G17" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F18" s="41">
+        <v>2</v>
+      </c>
+      <c r="G18" s="149" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F19" s="152">
+        <v>3</v>
+      </c>
+      <c r="G19" s="149" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F20" s="153">
+        <v>4</v>
+      </c>
+      <c r="G20" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F21" s="154">
+        <v>5</v>
+      </c>
+      <c r="G21" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
     <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="G16:K16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>